--- a/biology/Histoire de la zoologie et de la botanique/Engelm/Engelm..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Engelm/Engelm..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Engelmann est un médecin et botaniste d'origine allemande, né Georg Theodor Engelmann à Francfort-sur-le-Main le 2 février 1809, émigré aux États-Unis en 1832, décédé à Saint-Louis le 4 février 1884. C'est dans cette dernière ville que s'est déroulée la plus grande partie de sa carrière professionnelle. 
 </t>
@@ -511,13 +523,50 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ses recherches sur la biologie et la botanique l'ont amené à opérer des observations météorologiques depuis 1836 jusqu'à sa mort. Il est le premier à avoir remarqué que les vignes américaines étaient immunisées contre le phylloxéra. Il a longuement étudié la flore locale, s'intéressant en particulier aux cactus, aux chênes et aux conifères.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses recherches sur la biologie et la botanique l'ont amené à opérer des observations météorologiques depuis 1836 jusqu'à sa mort. Il est le premier à avoir remarqué que les vignes américaines étaient immunisées contre le phylloxéra. Il a longuement étudié la flore locale, s'intéressant en particulier aux cactus, aux chênes et aux conifères.
 Son nom a été donné à une espèce d'épicéa, Picea engelmannii (épinette d'Engelmann), et à un Opuntia : Opuntia engelmannii Salm-Dyck ex Engelm.
 Il entretient une correspondance avec le botaniste suisse Rudolph Friedrich Hohenacker de 1847 à 1860.
-Publications
-George Engelman - Rudolph Friedrich Hohenacker, "Correspondence : Hohenacker (Rudolf) and Engelmann (George)", 1847-1860.</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Engelm.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Engelm.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>George Engelman - Rudolph Friedrich Hohenacker, "Correspondence : Hohenacker (Rudolf) and Engelmann (George)", 1847-1860.</t>
         </is>
       </c>
     </row>
